--- a/src/main/resources/jxls_templates/container_import.xlsx
+++ b/src/main/resources/jxls_templates/container_import.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19815" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="容器档案表" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -369,12 +369,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>

--- a/src/main/resources/jxls_templates/container_import.xlsx
+++ b/src/main/resources/jxls_templates/container_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7260"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -23,43 +23,23 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>ASUS:</t>
+          <t>社内：入库；社外：出库</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-社内：入库；社外：出库</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-否：0，是：1</t>
+          <t>是，否</t>
         </r>
       </text>
     </comment>
@@ -68,38 +48,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>容器档案数据</t>
   </si>
   <si>
-    <t>*容器编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器编码</t>
+    </r>
   </si>
   <si>
-    <t>*容器名称</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器名称</t>
+    </r>
   </si>
   <si>
-    <t>*容器类型</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器类型</t>
+    </r>
   </si>
   <si>
-    <t>*部门</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门</t>
+    </r>
   </si>
   <si>
-    <t>*所属仓库</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属仓库</t>
+    </r>
   </si>
   <si>
-    <t>*存放地点</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存放地点</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>*长</t>
+      <t>长</t>
     </r>
     <r>
       <rPr>
@@ -117,11 +226,21 @@
       <rPr>
         <b/>
         <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>*宽</t>
+      <t>宽</t>
     </r>
     <r>
       <rPr>
@@ -139,11 +258,21 @@
       <rPr>
         <b/>
         <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>*高</t>
+      <t>高</t>
     </r>
     <r>
       <rPr>
@@ -157,10 +286,35 @@
     </r>
   </si>
   <si>
-    <t>*供应商</t>
+    <t>体积</t>
   </si>
   <si>
-    <t>*是否启用</t>
+    <t>公用机型</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否启用</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -173,7 +327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -192,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,6 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -360,6 +522,20 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -369,12 +545,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -574,36 +744,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,51 +855,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,124 +906,130 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1230,89 +1379,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="19.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="10" max="13" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="5" spans="6:6">
-      <c r="F5" s="6"/>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
